--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value799.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value799.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.21049339668555</v>
+        <v>1.355422377586365</v>
       </c>
       <c r="B1">
-        <v>3.326741507897381</v>
+        <v>2.014503717422485</v>
       </c>
       <c r="C1">
-        <v>2.627012005996011</v>
+        <v>3.854816198348999</v>
       </c>
       <c r="D1">
-        <v>2.413388040538001</v>
+        <v>1.017550110816956</v>
       </c>
       <c r="E1">
-        <v>1.935403280923775</v>
+        <v>0.7481813430786133</v>
       </c>
     </row>
   </sheetData>
